--- a/data/revenue/output/total_revenue.xlsx
+++ b/data/revenue/output/total_revenue.xlsx
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Номер</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Название</t>
@@ -456,8 +461,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="n">
+        <v>326</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -475,8 +480,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="n">
+        <v>327</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -490,12 +495,12 @@
         <v>807.8253058275657</v>
       </c>
       <c r="E3" t="n">
-        <v>16482395.82247747</v>
+        <v>21211.2413706317</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="n">
+        <v>328</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -509,12 +514,12 @@
         <v>2254.629940160631</v>
       </c>
       <c r="E4" t="n">
-        <v>77343361.55686879</v>
+        <v>36558.86771292722</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="n">
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -528,12 +533,12 @@
         <v>443.1463068957039</v>
       </c>
       <c r="E5" t="n">
-        <v>19073496.65441665</v>
+        <v>43484.22858066869</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="n">
+        <v>9</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -547,12 +552,12 @@
         <v>2747.148596539759</v>
       </c>
       <c r="E6" t="n">
-        <v>123157313.445675</v>
+        <v>47578.11027105602</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="n">
+        <v>10</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -566,12 +571,12 @@
         <v>628.4327499736501</v>
       </c>
       <c r="E7" t="n">
-        <v>12836339.11300738</v>
+        <v>21054.38781604175</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="n">
+        <v>11</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -585,12 +590,12 @@
         <v>3526.441752902712</v>
       </c>
       <c r="E8" t="n">
-        <v>212844028.1963663</v>
+        <v>63883.04002116234</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="n">
+        <v>12</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -604,12 +609,12 @@
         <v>1845.800822833057</v>
       </c>
       <c r="E9" t="n">
-        <v>91432507.98206738</v>
+        <v>51381.2148561472</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="n">
+        <v>13</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -623,12 +628,12 @@
         <v>1318.232946921411</v>
       </c>
       <c r="E10" t="n">
-        <v>23004140.67238501</v>
+        <v>18768.97314129196</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="n">
+        <v>14</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -642,12 +647,12 @@
         <v>2375.238887635379</v>
       </c>
       <c r="E11" t="n">
-        <v>126118446.9023479</v>
+        <v>55472.40210724843</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="n">
+        <v>15</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -661,12 +666,12 @@
         <v>906.2491693100815</v>
       </c>
       <c r="E12" t="n">
-        <v>17192781.318127</v>
+        <v>19877.61146166472</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="n">
+        <v>44</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -680,12 +685,12 @@
         <v>778.9684280389565</v>
       </c>
       <c r="E13" t="n">
-        <v>11134520.62293955</v>
+        <v>15072.89899332588</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="n">
+        <v>16</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -699,12 +704,12 @@
         <v>3209.813165779025</v>
       </c>
       <c r="E14" t="n">
-        <v>110964961.3107862</v>
+        <v>37780.34907541501</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="n">
+        <v>17</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -718,12 +723,12 @@
         <v>122.4017143407801</v>
       </c>
       <c r="E15" t="n">
-        <v>2901105.639136603</v>
+        <v>23823.91320673376</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="n">
+        <v>18</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -737,12 +742,12 @@
         <v>2591.807035406438</v>
       </c>
       <c r="E16" t="n">
-        <v>205822985.5903494</v>
+        <v>82004.73507311157</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="n">
+        <v>41</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -756,12 +761,12 @@
         <v>2686.533650201126</v>
       </c>
       <c r="E17" t="n">
-        <v>151550172.8458301</v>
+        <v>59097.57947294164</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="n">
+        <v>64</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -775,12 +780,12 @@
         <v>1488.273461476037</v>
       </c>
       <c r="E18" t="n">
-        <v>55249907.46631024</v>
+        <v>38611.76514257783</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="n">
+        <v>67</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -794,12 +799,12 @@
         <v>923.2953408011568</v>
       </c>
       <c r="E19" t="n">
-        <v>37609216.98258963</v>
+        <v>41656.97536777451</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="n">
+        <v>90</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -813,12 +818,12 @@
         <v>1503.07333277533</v>
       </c>
       <c r="E20" t="n">
-        <v>42278056.32540896</v>
+        <v>29630.81361231657</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="n">
+        <v>91</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -832,12 +837,12 @@
         <v>927.4274973874882</v>
       </c>
       <c r="E21" t="n">
-        <v>14699173.92579558</v>
+        <v>16776.83240203215</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="n">
+        <v>92</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -851,12 +856,12 @@
         <v>1717.262946914165</v>
       </c>
       <c r="E22" t="n">
-        <v>97836526.08661991</v>
+        <v>58689.62484549658</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="n">
+        <v>93</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -870,12 +875,12 @@
         <v>453.9256372601542</v>
       </c>
       <c r="E23" t="n">
-        <v>11254343.77964441</v>
+        <v>25247.29013540659</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="n">
+        <v>98</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -889,12 +894,12 @@
         <v>1713.659241123305</v>
       </c>
       <c r="E24" t="n">
-        <v>61861667.94801507</v>
+        <v>37812.8243863856</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="n">
+        <v>99</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -908,12 +913,12 @@
         <v>660.4134946461179</v>
       </c>
       <c r="E25" t="n">
-        <v>12638395.20289457</v>
+        <v>19797.50761121447</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="n">
+        <v>100</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -927,12 +932,12 @@
         <v>530.017449996973</v>
       </c>
       <c r="E26" t="n">
-        <v>17090353.28521483</v>
+        <v>32774.90539720029</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="n">
+        <v>104</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -946,12 +951,12 @@
         <v>1646.816824296495</v>
       </c>
       <c r="E27" t="n">
-        <v>93310049.04597355</v>
+        <v>58307.67167427944</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="n">
+        <v>133</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -965,12 +970,12 @@
         <v>1594.963809620481</v>
       </c>
       <c r="E28" t="n">
-        <v>67721337.74730498</v>
+        <v>44054.44617456465</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="n">
+        <v>136</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -984,12 +989,12 @@
         <v>818.1735855019064</v>
       </c>
       <c r="E29" t="n">
-        <v>10676087.28457504</v>
+        <v>13866.85600908054</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="n">
+        <v>137</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1003,12 +1008,12 @@
         <v>1321.50788466856</v>
       </c>
       <c r="E30" t="n">
-        <v>38507512.96619879</v>
+        <v>30460.57955646313</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="n">
+        <v>373</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1022,12 +1027,12 @@
         <v>1081.220373239745</v>
       </c>
       <c r="E31" t="n">
-        <v>18383436.87122894</v>
+        <v>18083.70878931095</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="n">
+        <v>377</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1041,12 +1046,12 @@
         <v>2543.268990422074</v>
       </c>
       <c r="E32" t="n">
-        <v>101998536.323333</v>
+        <v>42648.55738400471</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="n">
+        <v>143</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1060,12 +1065,12 @@
         <v>2481.139576397256</v>
       </c>
       <c r="E33" t="n">
-        <v>128890700.8827175</v>
+        <v>54429.32584888156</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="n">
+        <v>144</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1079,12 +1084,12 @@
         <v>873.992668451128</v>
       </c>
       <c r="E34" t="n">
-        <v>28508944.01922345</v>
+        <v>33493.19537840797</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="n">
+        <v>153</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1098,12 +1103,12 @@
         <v>1253.112579594745</v>
       </c>
       <c r="E35" t="n">
-        <v>47662747.79255502</v>
+        <v>39288.60002795242</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="n">
+        <v>154</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1117,12 +1122,12 @@
         <v>1899.755706722129</v>
       </c>
       <c r="E36" t="n">
-        <v>60477440.58910363</v>
+        <v>33734.08070709412</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="n">
+        <v>156</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1136,12 +1141,12 @@
         <v>648.6413964138039</v>
       </c>
       <c r="E37" t="n">
-        <v>25456185.8029236</v>
+        <v>39894.03329348555</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="n">
+        <v>385</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1155,12 +1160,12 @@
         <v>2544.193441225051</v>
       </c>
       <c r="E38" t="n">
-        <v>75766822.2242174</v>
+        <v>32324.48490669437</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="n">
+        <v>386</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1174,12 +1179,12 @@
         <v>454.8279745502451</v>
       </c>
       <c r="E39" t="n">
-        <v>14343559.71553887</v>
+        <v>31991.05819372804</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="n">
+        <v>387</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1193,12 +1198,12 @@
         <v>1619.044256370925</v>
       </c>
       <c r="E40" t="n">
-        <v>62781732.16898858</v>
+        <v>40396.07701624949</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="n">
+        <v>388</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1212,12 +1217,12 @@
         <v>2798.622327518073</v>
       </c>
       <c r="E41" t="n">
-        <v>148739077.2363198</v>
+        <v>55945.87116270742</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="n">
+        <v>389</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1231,12 +1236,12 @@
         <v>1960.087827046903</v>
       </c>
       <c r="E42" t="n">
-        <v>110043766.9016785</v>
+        <v>58102.35113953942</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="n">
+        <v>390</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1250,12 +1255,12 @@
         <v>840.3653744207032</v>
       </c>
       <c r="E43" t="n">
-        <v>11981878.10399937</v>
+        <v>15098.30420520481</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="n">
+        <v>391</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1269,12 +1274,12 @@
         <v>1475.558013479307</v>
       </c>
       <c r="E44" t="n">
-        <v>61892071.84880874</v>
+        <v>43420.41635413492</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="n">
+        <v>405</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1288,12 +1293,12 @@
         <v>898.6421525303873</v>
       </c>
       <c r="E45" t="n">
-        <v>44215509.26096253</v>
+        <v>50101.21865805148</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="n">
+        <v>416</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1307,12 +1312,12 @@
         <v>1221.751103322245</v>
       </c>
       <c r="E46" t="n">
-        <v>42364903.76294506</v>
+        <v>35897.31116440536</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="n">
+        <v>418</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1326,12 +1331,12 @@
         <v>409.3602031994114</v>
       </c>
       <c r="E47" t="n">
-        <v>6150250.399828736</v>
+        <v>15433.41567258945</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="n">
+        <v>419</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1345,12 +1350,12 @@
         <v>1695.911485065655</v>
       </c>
       <c r="E48" t="n">
-        <v>55512802.20770466</v>
+        <v>34429.22492539274</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="n">
+        <v>158</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1364,12 +1369,12 @@
         <v>2840.962640595823</v>
       </c>
       <c r="E49" t="n">
-        <v>169942798.6273623</v>
+        <v>62659.70020474798</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="n">
+        <v>168</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1383,12 +1388,12 @@
         <v>1332.150791738085</v>
       </c>
       <c r="E50" t="n">
-        <v>31872092.97082964</v>
+        <v>25257.44000711697</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="n">
+        <v>180</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1402,12 +1407,12 @@
         <v>572.2732764069527</v>
       </c>
       <c r="E51" t="n">
-        <v>23853286.21146569</v>
+        <v>42253.90894744471</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="n">
+        <v>181</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1421,12 +1426,12 @@
         <v>596.7532428438724</v>
       </c>
       <c r="E52" t="n">
-        <v>6908014.897325132</v>
+        <v>12172.75216729792</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="n">
+        <v>183</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1440,12 +1445,12 @@
         <v>1541.049962479477</v>
       </c>
       <c r="E53" t="n">
-        <v>38858919.04098958</v>
+        <v>26756.92224897395</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="n">
+        <v>206</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1459,12 +1464,12 @@
         <v>877.7220506724668</v>
       </c>
       <c r="E54" t="n">
-        <v>14623894.06332561</v>
+        <v>17538.91228979374</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="n">
+        <v>184</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1478,12 +1483,12 @@
         <v>1314.621868349877</v>
       </c>
       <c r="E55" t="n">
-        <v>62125570.07100701</v>
+        <v>48571.99036853122</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="n">
+        <v>207</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1497,12 +1502,12 @@
         <v>960.5053371181903</v>
       </c>
       <c r="E56" t="n">
-        <v>29423136.44251632</v>
+        <v>31593.48081937291</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="n">
+        <v>187</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1516,12 +1521,12 @@
         <v>1343.205605852672</v>
       </c>
       <c r="E57" t="n">
-        <v>75935686.37563416</v>
+        <v>57876.38715658773</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="n">
+        <v>438</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1535,12 +1540,12 @@
         <v>3124.150781928985</v>
       </c>
       <c r="E58" t="n">
-        <v>170815115.0749519</v>
+        <v>57799.84571413175</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="n">
+        <v>440</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1554,12 +1559,12 @@
         <v>930.8995722725739</v>
       </c>
       <c r="E59" t="n">
-        <v>13338891.62618234</v>
+        <v>15259.93357711002</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="n">
+        <v>212</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1573,12 +1578,12 @@
         <v>-28.88942243472178</v>
       </c>
       <c r="E60" t="n">
-        <v>-1660334.837280248</v>
+        <v>57443.1781148074</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="n">
+        <v>213</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1592,12 +1597,12 @@
         <v>683.4441938989825</v>
       </c>
       <c r="E61" t="n">
-        <v>18258520.26030218</v>
+        <v>27398.8957600892</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="n">
+        <v>215</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1611,12 +1616,12 @@
         <v>494.5870606044681</v>
       </c>
       <c r="E62" t="n">
-        <v>7649359.306004592</v>
+        <v>15960.74037374573</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="n">
+        <v>218</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1630,12 +1635,12 @@
         <v>1493.704930072321</v>
       </c>
       <c r="E63" t="n">
-        <v>38747386.07228042</v>
+        <v>27434.16029859305</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="n">
+        <v>219</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1649,12 +1654,12 @@
         <v>1701.145454594783</v>
       </c>
       <c r="E64" t="n">
-        <v>64099678.67224298</v>
+        <v>39381.44992186426</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="n">
+        <v>450</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1668,12 +1673,12 @@
         <v>928.0875747524231</v>
       </c>
       <c r="E65" t="n">
-        <v>62676715.00616206</v>
+        <v>68461.27809600439</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="n">
+        <v>251</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1687,12 +1692,12 @@
         <v>2191.745793438904</v>
       </c>
       <c r="E66" t="n">
-        <v>69383857.49329248</v>
+        <v>33848.63670706419</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="n">
+        <v>252</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1706,12 +1711,12 @@
         <v>1992.407216375522</v>
       </c>
       <c r="E67" t="n">
-        <v>44984549.7018536</v>
+        <v>24570.39696271212</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="n">
+        <v>253</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1725,12 +1730,12 @@
         <v>3483.23187174946</v>
       </c>
       <c r="E68" t="n">
-        <v>214995086.2392813</v>
+        <v>65206.10710810275</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="n">
+        <v>254</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1748,8 +1753,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="n">
+        <v>275</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1763,12 +1768,12 @@
         <v>2073.55881026553</v>
       </c>
       <c r="E70" t="n">
-        <v>98194748.74545875</v>
+        <v>49429.22012998686</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="n">
+        <v>278</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1786,8 +1791,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="n">
+        <v>279</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1801,12 +1806,12 @@
         <v>1592.541147015765</v>
       </c>
       <c r="E72" t="n">
-        <v>43108240.09007997</v>
+        <v>28661.38026044134</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="n">
+        <v>280</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1820,12 +1825,12 @@
         <v>3199.005701819884</v>
       </c>
       <c r="E73" t="n">
-        <v>167464807.2619531</v>
+        <v>55548.02376286429</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="n">
+        <v>284</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1839,12 +1844,12 @@
         <v>2221.509072846978</v>
       </c>
       <c r="E74" t="n">
-        <v>117125629.2487834</v>
+        <v>54944.96209871325</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="n">
+        <v>286</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1858,12 +1863,12 @@
         <v>2410.211700886266</v>
       </c>
       <c r="E75" t="n">
-        <v>98424740.72551835</v>
+        <v>43246.76588794225</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="n">
+        <v>289</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1877,12 +1882,12 @@
         <v>1864.705195919929</v>
       </c>
       <c r="E76" t="n">
-        <v>141629881.7362788</v>
+        <v>77817.66657886254</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="n">
+        <v>290</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1896,12 +1901,12 @@
         <v>326.7451533217292</v>
       </c>
       <c r="E77" t="n">
-        <v>15275828.70216814</v>
+        <v>47078.25331456694</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="n">
+        <v>292</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1915,12 +1920,12 @@
         <v>358.4790005606823</v>
       </c>
       <c r="E78" t="n">
-        <v>10495222.14276245</v>
+        <v>29635.56950334412</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="n">
+        <v>293</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1934,12 +1939,12 @@
         <v>1919.15534993073</v>
       </c>
       <c r="E79" t="n">
-        <v>94478594.54060555</v>
+        <v>51148.41370257825</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="n">
+        <v>294</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1953,12 +1958,12 @@
         <v>340.8900633827123</v>
       </c>
       <c r="E80" t="n">
-        <v>4808338.451836475</v>
+        <v>14446.13679343545</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="n">
+        <v>295</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1972,12 +1977,12 @@
         <v>890.2637668406195</v>
       </c>
       <c r="E81" t="n">
-        <v>22767197.05186921</v>
+        <v>26463.80489012564</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="n">
+        <v>460</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1991,12 +1996,12 @@
         <v>236.9226304296826</v>
       </c>
       <c r="E82" t="n">
-        <v>2409852.334729261</v>
+        <v>10408.39645865266</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="n">
+        <v>299</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2010,12 +2015,12 @@
         <v>1058.387096085496</v>
       </c>
       <c r="E83" t="n">
-        <v>46580765.86905808</v>
+        <v>45069.47343806723</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="n">
+        <v>302</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2029,12 +2034,12 @@
         <v>4425.243769497448</v>
       </c>
       <c r="E84" t="n">
-        <v>308668981.8892486</v>
+        <v>74177.10332057085</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="n">
+        <v>303</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2048,12 +2053,12 @@
         <v>500.301964827681</v>
       </c>
       <c r="E85" t="n">
-        <v>20857294.48622748</v>
+        <v>42189.71346536287</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="n">
+        <v>304</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2067,12 +2072,12 @@
         <v>1058.289151365493</v>
       </c>
       <c r="E86" t="n">
-        <v>24789742.80457835</v>
+        <v>24482.64606988115</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="n">
+        <v>305</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2086,12 +2091,12 @@
         <v>1069.126786847524</v>
       </c>
       <c r="E87" t="n">
-        <v>21187326.51724265</v>
+        <v>20886.5392564355</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="n">
+        <v>306</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2105,12 +2110,12 @@
         <v>1504.000823453701</v>
       </c>
       <c r="E88" t="n">
-        <v>52682123.39723045</v>
+        <v>36531.98922325674</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="n">
+        <v>311</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2124,12 +2129,12 @@
         <v>1333.50816782995</v>
       </c>
       <c r="E89" t="n">
-        <v>62036293.85704178</v>
+        <v>47854.6284381279</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="n">
+        <v>312</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2143,12 +2148,12 @@
         <v>1954.185098354272</v>
       </c>
       <c r="E90" t="n">
-        <v>81403055.53829169</v>
+        <v>43609.94002497086</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="n">
+        <v>482</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2166,8 +2171,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="n">
+        <v>487</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2181,12 +2186,12 @@
         <v>3445.195992407479</v>
       </c>
       <c r="E92" t="n">
-        <v>190026993.862543</v>
+        <v>58602.28844268442</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="n">
+        <v>494</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2200,12 +2205,12 @@
         <v>1415.885985485223</v>
       </c>
       <c r="E93" t="n">
-        <v>79866942.13503037</v>
+        <v>57823.63558804948</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="n">
+        <v>513</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2219,12 +2224,12 @@
         <v>477.2352146362356</v>
       </c>
       <c r="E94" t="n">
-        <v>7704979.293173052</v>
+        <v>16622.27031864892</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="n">
+        <v>519</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2238,12 +2243,12 @@
         <v>1168.563215590906</v>
       </c>
       <c r="E95" t="n">
-        <v>49644690.41948048</v>
+        <v>43652.09320962439</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="n">
+        <v>524</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2257,12 +2262,12 @@
         <v>1612.869915408418</v>
       </c>
       <c r="E96" t="n">
-        <v>44586627.51678482</v>
+        <v>29257.14989783613</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="n">
+        <v>532</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2276,12 +2281,12 @@
         <v>1785.408191385118</v>
       </c>
       <c r="E97" t="n">
-        <v>69055829.40158215</v>
+        <v>40463.30254338128</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="n">
+        <v>533</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2295,12 +2300,12 @@
         <v>1711.218634092145</v>
       </c>
       <c r="E98" t="n">
-        <v>69131469.71011497</v>
+        <v>42110.1883115065</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="n">
+        <v>534</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2314,12 +2319,12 @@
         <v>2364.208030913866</v>
       </c>
       <c r="E99" t="n">
-        <v>161568759.9512765</v>
+        <v>70703.69332097244</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="n">
+        <v>537</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2333,12 +2338,12 @@
         <v>2794.652635761949</v>
       </c>
       <c r="E100" t="n">
-        <v>118265036.3861055</v>
+        <v>45112.98403506343</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="n">
+        <v>574</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2352,12 +2357,12 @@
         <v>1470.576249498464</v>
       </c>
       <c r="E101" t="n">
-        <v>102411720.0460383</v>
+        <v>71111.11347493342</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" t="n">
+        <v>576</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2371,12 +2376,12 @@
         <v>899.0189032763568</v>
       </c>
       <c r="E102" t="n">
-        <v>18918276.64921728</v>
+        <v>21942.26569182785</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
+      <c r="A103" t="n">
+        <v>577</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2394,8 +2399,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
+      <c r="A104" t="n">
+        <v>584</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2409,12 +2414,12 @@
         <v>3385.316146011814</v>
       </c>
       <c r="E104" t="n">
-        <v>292146271.7230268</v>
+        <v>89683.39263945825</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
+      <c r="A105" t="n">
+        <v>585</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2428,12 +2433,12 @@
         <v>1636.173984359474</v>
       </c>
       <c r="E105" t="n">
-        <v>49050315.44449741</v>
+        <v>31614.84123697413</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
+      <c r="A106" t="n">
+        <v>589</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2451,8 +2456,8 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
+      <c r="A107" t="n">
+        <v>591</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2466,12 +2471,12 @@
         <v>1399.024192438298</v>
       </c>
       <c r="E107" t="n">
-        <v>30636751.93300176</v>
+        <v>23297.68191300731</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
+      <c r="A108" t="n">
+        <v>592</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2489,8 +2494,8 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
+      <c r="A109" t="n">
+        <v>594</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2504,12 +2509,12 @@
         <v>684.7430765663636</v>
       </c>
       <c r="E109" t="n">
-        <v>8564677.387911469</v>
+        <v>13192.61308068374</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
+      <c r="A110" t="n">
+        <v>598</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2527,8 +2532,8 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
+      <c r="A111" t="n">
+        <v>599</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2542,12 +2547,12 @@
         <v>1329.74018750788</v>
       </c>
       <c r="E111" t="n">
-        <v>75550995.5829957</v>
+        <v>58146.09897154139</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
+      <c r="A112" t="n">
+        <v>614</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2561,12 +2566,12 @@
         <v>2965.904497828343</v>
       </c>
       <c r="E112" t="n">
-        <v>167992493.9125955</v>
+        <v>59607.13958668598</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
+      <c r="A113" t="n">
+        <v>655</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2580,12 +2585,12 @@
         <v>1087.526536501254</v>
       </c>
       <c r="E113" t="n">
-        <v>31837460.59238661</v>
+        <v>30362.63801544758</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
+      <c r="A114" t="n">
+        <v>657</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2599,12 +2604,12 @@
         <v>1307.127767959192</v>
       </c>
       <c r="E114" t="n">
-        <v>32346165.7699456</v>
+        <v>26053.11401569028</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
+      <c r="A115" t="n">
+        <v>661</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2618,12 +2623,12 @@
         <v>1805.870156335956</v>
       </c>
       <c r="E115" t="n">
-        <v>64925990.73933119</v>
+        <v>37758.61598999192</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
+      <c r="A116" t="n">
+        <v>663</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2637,12 +2642,12 @@
         <v>2414.907930262473</v>
       </c>
       <c r="E116" t="n">
-        <v>84026601.05983047</v>
+        <v>37209.85808419971</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
+      <c r="A117" t="n">
+        <v>674</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2656,12 +2661,12 @@
         <v>3181.955414691584</v>
       </c>
       <c r="E117" t="n">
-        <v>184861830.2133155</v>
+        <v>61278.88202773574</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
+      <c r="A118" t="n">
+        <v>679</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -2675,12 +2680,12 @@
         <v>4263.352545287273</v>
       </c>
       <c r="E118" t="n">
-        <v>259159286.8341977</v>
+        <v>65051.02705291704</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
+      <c r="A119" t="n">
+        <v>680</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -2698,8 +2703,8 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
+      <c r="A120" t="n">
+        <v>682</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -2713,12 +2718,12 @@
         <v>3236.703823923215</v>
       </c>
       <c r="E120" t="n">
-        <v>152305413.6567575</v>
+        <v>50292.41912633473</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
+      <c r="A121" t="n">
+        <v>684</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -2732,12 +2737,12 @@
         <v>2458.683050002939</v>
       </c>
       <c r="E121" t="n">
-        <v>85811677.44838198</v>
+        <v>37360.16311197327</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
+      <c r="A122" t="n">
+        <v>690</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -2751,12 +2756,12 @@
         <v>2439.788254997063</v>
       </c>
       <c r="E122" t="n">
-        <v>73400029.43767615</v>
+        <v>32524.37829568669</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
+      <c r="A123" t="n">
+        <v>691</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -2774,8 +2779,8 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
+      <c r="A124" t="n">
+        <v>693</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -2789,12 +2794,12 @@
         <v>1314.595285753501</v>
       </c>
       <c r="E124" t="n">
-        <v>36989065.50709794</v>
+        <v>29451.82193486362</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
+      <c r="A125" t="n">
+        <v>694</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -2808,12 +2813,12 @@
         <v>1952.469704584621</v>
       </c>
       <c r="E125" t="n">
-        <v>57188936.60224471</v>
+        <v>31243.03255836852</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
+      <c r="A126" t="n">
+        <v>699</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2827,12 +2832,12 @@
         <v>1347.794800982929</v>
       </c>
       <c r="E126" t="n">
-        <v>19701437.81540351</v>
+        <v>15965.32990427573</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
+      <c r="A127" t="n">
+        <v>702</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2850,8 +2855,8 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
+      <c r="A128" t="n">
+        <v>705</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2865,12 +2870,12 @@
         <v>615.429555044824</v>
       </c>
       <c r="E128" t="n">
-        <v>31440118.54771598</v>
+        <v>51701.89150669107</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
+      <c r="A129" t="n">
+        <v>706</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2884,12 +2889,12 @@
         <v>3051.478477484144</v>
       </c>
       <c r="E129" t="n">
-        <v>132273946.6636421</v>
+        <v>46398.97302468414</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
+      <c r="A130" t="n">
+        <v>718</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2907,8 +2912,8 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
+      <c r="A131" t="n">
+        <v>719</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2922,12 +2927,12 @@
         <v>1527.187616608308</v>
       </c>
       <c r="E131" t="n">
-        <v>71662132.95462061</v>
+        <v>48451.43724729431</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
+      <c r="A132" t="n">
+        <v>720</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2941,12 +2946,12 @@
         <v>371.2662672981785</v>
       </c>
       <c r="E132" t="n">
-        <v>8922768.430700107</v>
+        <v>24404.60626242863</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
+      <c r="A133" t="n">
+        <v>722</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2960,12 +2965,12 @@
         <v>726.9451940680677</v>
       </c>
       <c r="E133" t="n">
-        <v>14912082.21771084</v>
+        <v>21240.29659854072</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
+      <c r="A134" t="n">
+        <v>736</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2979,12 +2984,12 @@
         <v>2949.746440657153</v>
       </c>
       <c r="E134" t="n">
-        <v>153636831.8573464</v>
+        <v>55034.50523203272</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
+      <c r="A135" t="n">
+        <v>737</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2998,12 +3003,12 @@
         <v>712.4786263889063</v>
       </c>
       <c r="E135" t="n">
-        <v>15479211.11823918</v>
+        <v>22438.33894684974</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
+      <c r="A136" t="n">
+        <v>740</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -3017,12 +3022,12 @@
         <v>4311.166178718445</v>
       </c>
       <c r="E136" t="n">
-        <v>275453667.533197</v>
+        <v>68204.24199958127</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
+      <c r="A137" t="n">
+        <v>741</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -3036,12 +3041,12 @@
         <v>1254.858667204419</v>
       </c>
       <c r="E137" t="n">
-        <v>51379669.83358572</v>
+        <v>42199.44563654785</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
+      <c r="A138" t="n">
+        <v>744</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -3055,12 +3060,12 @@
         <v>2759.303798655559</v>
       </c>
       <c r="E138" t="n">
-        <v>153075345.1340883</v>
+        <v>58235.37903497879</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
+      <c r="A139" t="n">
+        <v>745</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -3074,12 +3079,12 @@
         <v>1850.268814877289</v>
       </c>
       <c r="E139" t="n">
-        <v>56115804.0527994</v>
+        <v>32178.72898325615</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
+      <c r="A140" t="n">
+        <v>754</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -3093,12 +3098,12 @@
         <v>1089.333469425203</v>
       </c>
       <c r="E140" t="n">
-        <v>33105879.31354846</v>
+        <v>31480.28375484797</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
+      <c r="A141" t="n">
+        <v>755</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -3112,12 +3117,12 @@
         <v>1738.784522785509</v>
       </c>
       <c r="E141" t="n">
-        <v>51006078.71140631</v>
+        <v>31073.11436239972</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
+      <c r="A142" t="n">
+        <v>756</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -3131,12 +3136,12 @@
         <v>2687.980758271299</v>
       </c>
       <c r="E142" t="n">
-        <v>120530254.4588211</v>
+        <v>47528.42616991806</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
+      <c r="A143" t="n">
+        <v>764</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -3150,12 +3155,12 @@
         <v>2338.414650554859</v>
       </c>
       <c r="E143" t="n">
-        <v>88497976.26176348</v>
+        <v>40183.70279941447</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
+      <c r="A144" t="n">
+        <v>765</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -3169,12 +3174,12 @@
         <v>1068.139569750504</v>
       </c>
       <c r="E144" t="n">
-        <v>26830261.9850008</v>
+        <v>26186.82512810671</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
+      <c r="A145" t="n">
+        <v>767</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -3188,12 +3193,12 @@
         <v>1096.469992037489</v>
       </c>
       <c r="E145" t="n">
-        <v>29246046.98071729</v>
+        <v>27769.38141971051</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
+      <c r="A146" t="n">
+        <v>768</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -3207,12 +3212,12 @@
         <v>3376.411346911279</v>
       </c>
       <c r="E146" t="n">
-        <v>203003098.6575876</v>
+        <v>63500.33518198948</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
+      <c r="A147" t="n">
+        <v>781</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -3226,12 +3231,12 @@
         <v>2851.646492541495</v>
       </c>
       <c r="E147" t="n">
-        <v>127559371.8275951</v>
+        <v>47583.47849248529</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
+      <c r="A148" t="n">
+        <v>782</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -3245,12 +3250,12 @@
         <v>3082.482609699274</v>
       </c>
       <c r="E148" t="n">
-        <v>203848351.9655338</v>
+        <v>69213.70791624566</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
+      <c r="A149" t="n">
+        <v>783</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -3264,12 +3269,12 @@
         <v>492.6897436430788</v>
       </c>
       <c r="E149" t="n">
-        <v>10524145.16439836</v>
+        <v>21853.28289620199</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
+      <c r="A150" t="n">
+        <v>785</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -3287,8 +3292,8 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
+      <c r="A151" t="n">
+        <v>788</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -3302,12 +3307,12 @@
         <v>1645.185454651583</v>
       </c>
       <c r="E151" t="n">
-        <v>46782704.99554392</v>
+        <v>30081.31395510174</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
+      <c r="A152" t="n">
+        <v>796</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -3321,12 +3326,12 @@
         <v>2770.338183210489</v>
       </c>
       <c r="E152" t="n">
-        <v>190551170.5639652</v>
+        <v>71552.97696673233</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
+      <c r="A153" t="n">
+        <v>800</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -3340,12 +3345,12 @@
         <v>718.4209894368887</v>
       </c>
       <c r="E153" t="n">
-        <v>9682167.815148739</v>
+        <v>14195.43232054763</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
+      <c r="A154" t="n">
+        <v>804</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -3359,12 +3364,12 @@
         <v>1678.257950323181</v>
       </c>
       <c r="E154" t="n">
-        <v>87189878.49296866</v>
+        <v>53630.86659202726</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
+      <c r="A155" t="n">
+        <v>805</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -3378,12 +3383,12 @@
         <v>2686.115132437945</v>
       </c>
       <c r="E155" t="n">
-        <v>139923515.4126033</v>
+        <v>54777.52168566611</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
+      <c r="A156" t="n">
+        <v>807</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -3397,12 +3402,12 @@
         <v>1741.86424282994</v>
       </c>
       <c r="E156" t="n">
-        <v>117879965.4931969</v>
+        <v>69416.46401627829</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
+      <c r="A157" t="n">
+        <v>809</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -3416,12 +3421,12 @@
         <v>379.8969050861595</v>
       </c>
       <c r="E157" t="n">
-        <v>6538194.440085224</v>
+        <v>17590.34098228226</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
+      <c r="A158" t="n">
+        <v>811</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -3435,7 +3440,7 @@
         <v>1664.610922961272</v>
       </c>
       <c r="E158" t="n">
-        <v>63281671.42788294</v>
+        <v>39680.50433984906</v>
       </c>
     </row>
   </sheetData>

--- a/data/revenue/output/total_revenue.xlsx
+++ b/data/revenue/output/total_revenue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:D158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +454,6 @@
           <t>Доход от ДАС, евро</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Итог, евро</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -475,9 +470,6 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -492,10 +484,7 @@
         <v>20403.41606480414</v>
       </c>
       <c r="D3" t="n">
-        <v>807.8253058275657</v>
-      </c>
-      <c r="E3" t="n">
-        <v>21211.2413706317</v>
+        <v>759.8677129290977</v>
       </c>
     </row>
     <row r="4">
@@ -511,10 +500,7 @@
         <v>34304.23777276659</v>
       </c>
       <c r="D4" t="n">
-        <v>2254.629940160631</v>
-      </c>
-      <c r="E4" t="n">
-        <v>36558.86771292722</v>
+        <v>2055.375422847337</v>
       </c>
     </row>
     <row r="5">
@@ -530,10 +516,7 @@
         <v>43041.08227377299</v>
       </c>
       <c r="D5" t="n">
-        <v>443.1463068957039</v>
-      </c>
-      <c r="E5" t="n">
-        <v>43484.22858066869</v>
+        <v>398.8316762061335</v>
       </c>
     </row>
     <row r="6">
@@ -549,10 +532,7 @@
         <v>44830.96167451626</v>
       </c>
       <c r="D6" t="n">
-        <v>2747.148596539759</v>
-      </c>
-      <c r="E6" t="n">
-        <v>47578.11027105602</v>
+        <v>274.7148596539759</v>
       </c>
     </row>
     <row r="7">
@@ -568,10 +548,7 @@
         <v>20425.9550660681</v>
       </c>
       <c r="D7" t="n">
-        <v>628.4327499736501</v>
-      </c>
-      <c r="E7" t="n">
-        <v>21054.38781604175</v>
+        <v>624.0032763697745</v>
       </c>
     </row>
     <row r="8">
@@ -587,10 +564,7 @@
         <v>60356.59826825963</v>
       </c>
       <c r="D8" t="n">
-        <v>3526.441752902712</v>
-      </c>
-      <c r="E8" t="n">
-        <v>63883.04002116234</v>
+        <v>2942.381163625981</v>
       </c>
     </row>
     <row r="9">
@@ -606,10 +580,7 @@
         <v>49535.41403331414</v>
       </c>
       <c r="D9" t="n">
-        <v>1845.800822833057</v>
-      </c>
-      <c r="E9" t="n">
-        <v>51381.2148561472</v>
+        <v>429.2906805670255</v>
       </c>
     </row>
     <row r="10">
@@ -625,10 +596,7 @@
         <v>17450.74019437056</v>
       </c>
       <c r="D10" t="n">
-        <v>1318.232946921411</v>
-      </c>
-      <c r="E10" t="n">
-        <v>18768.97314129196</v>
+        <v>1257.530188929278</v>
       </c>
     </row>
     <row r="11">
@@ -644,10 +612,7 @@
         <v>53097.16321961305</v>
       </c>
       <c r="D11" t="n">
-        <v>2375.238887635379</v>
-      </c>
-      <c r="E11" t="n">
-        <v>55472.40210724843</v>
+        <v>2113.039137062422</v>
       </c>
     </row>
     <row r="12">
@@ -663,10 +628,7 @@
         <v>18971.36229235464</v>
       </c>
       <c r="D12" t="n">
-        <v>906.2491693100815</v>
-      </c>
-      <c r="E12" t="n">
-        <v>19877.61146166472</v>
+        <v>90.62491693100816</v>
       </c>
     </row>
     <row r="13">
@@ -682,10 +644,7 @@
         <v>14293.93056528693</v>
       </c>
       <c r="D13" t="n">
-        <v>778.9684280389565</v>
-      </c>
-      <c r="E13" t="n">
-        <v>15072.89899332588</v>
+        <v>77.89684280389567</v>
       </c>
     </row>
     <row r="14">
@@ -701,10 +660,7 @@
         <v>34570.53590963599</v>
       </c>
       <c r="D14" t="n">
-        <v>3209.813165779025</v>
-      </c>
-      <c r="E14" t="n">
-        <v>37780.34907541501</v>
+        <v>3085.922600035552</v>
       </c>
     </row>
     <row r="15">
@@ -720,10 +676,7 @@
         <v>23701.51149239298</v>
       </c>
       <c r="D15" t="n">
-        <v>122.4017143407801</v>
-      </c>
-      <c r="E15" t="n">
-        <v>23823.91320673376</v>
+        <v>9.658331081899345</v>
       </c>
     </row>
     <row r="16">
@@ -739,10 +692,7 @@
         <v>79412.92803770513</v>
       </c>
       <c r="D16" t="n">
-        <v>2591.807035406438</v>
-      </c>
-      <c r="E16" t="n">
-        <v>82004.73507311157</v>
+        <v>2345.722991189964</v>
       </c>
     </row>
     <row r="17">
@@ -758,10 +708,7 @@
         <v>56411.04582274051</v>
       </c>
       <c r="D17" t="n">
-        <v>2686.533650201126</v>
-      </c>
-      <c r="E17" t="n">
-        <v>59097.57947294164</v>
+        <v>268.6533650201126</v>
       </c>
     </row>
     <row r="18">
@@ -777,10 +724,7 @@
         <v>37123.49168110179</v>
       </c>
       <c r="D18" t="n">
-        <v>1488.273461476037</v>
-      </c>
-      <c r="E18" t="n">
-        <v>38611.76514257783</v>
+        <v>1352.475386160517</v>
       </c>
     </row>
     <row r="19">
@@ -796,10 +740,7 @@
         <v>40733.68002697335</v>
       </c>
       <c r="D19" t="n">
-        <v>923.2953408011568</v>
-      </c>
-      <c r="E19" t="n">
-        <v>41656.97536777451</v>
+        <v>92.32953408011568</v>
       </c>
     </row>
     <row r="20">
@@ -815,10 +756,7 @@
         <v>28127.74027954124</v>
       </c>
       <c r="D20" t="n">
-        <v>1503.07333277533</v>
-      </c>
-      <c r="E20" t="n">
-        <v>29630.81361231657</v>
+        <v>1352.765999497797</v>
       </c>
     </row>
     <row r="21">
@@ -834,10 +772,7 @@
         <v>15849.40490464466</v>
       </c>
       <c r="D21" t="n">
-        <v>927.4274973874882</v>
-      </c>
-      <c r="E21" t="n">
-        <v>16776.83240203215</v>
+        <v>834.6847476487394</v>
       </c>
     </row>
     <row r="22">
@@ -853,10 +788,7 @@
         <v>56972.36189858241</v>
       </c>
       <c r="D22" t="n">
-        <v>1717.262946914165</v>
-      </c>
-      <c r="E22" t="n">
-        <v>58689.62484549658</v>
+        <v>171.7262946914165</v>
       </c>
     </row>
     <row r="23">
@@ -872,10 +804,7 @@
         <v>24793.36449814644</v>
       </c>
       <c r="D23" t="n">
-        <v>453.9256372601542</v>
-      </c>
-      <c r="E23" t="n">
-        <v>25247.29013540659</v>
+        <v>445.939293415258</v>
       </c>
     </row>
     <row r="24">
@@ -891,10 +820,7 @@
         <v>36099.1651452623</v>
       </c>
       <c r="D24" t="n">
-        <v>1713.659241123305</v>
-      </c>
-      <c r="E24" t="n">
-        <v>37812.8243863856</v>
+        <v>1542.293317010975</v>
       </c>
     </row>
     <row r="25">
@@ -910,10 +836,7 @@
         <v>19137.09411656835</v>
       </c>
       <c r="D25" t="n">
-        <v>660.4134946461179</v>
-      </c>
-      <c r="E25" t="n">
-        <v>19797.50761121447</v>
+        <v>594.3721451815061</v>
       </c>
     </row>
     <row r="26">
@@ -929,10 +852,7 @@
         <v>32244.88794720331</v>
       </c>
       <c r="D26" t="n">
-        <v>530.017449996973</v>
-      </c>
-      <c r="E26" t="n">
-        <v>32774.90539720029</v>
+        <v>477.0157049972758</v>
       </c>
     </row>
     <row r="27">
@@ -948,10 +868,7 @@
         <v>56660.85484998294</v>
       </c>
       <c r="D27" t="n">
-        <v>1646.816824296495</v>
-      </c>
-      <c r="E27" t="n">
-        <v>58307.67167427944</v>
+        <v>164.6816824296495</v>
       </c>
     </row>
     <row r="28">
@@ -967,10 +884,7 @@
         <v>42459.48236494417</v>
       </c>
       <c r="D28" t="n">
-        <v>1594.963809620481</v>
-      </c>
-      <c r="E28" t="n">
-        <v>44054.44617456465</v>
+        <v>1582.778404193097</v>
       </c>
     </row>
     <row r="29">
@@ -986,10 +900,7 @@
         <v>13048.68242357863</v>
       </c>
       <c r="D29" t="n">
-        <v>818.1735855019064</v>
-      </c>
-      <c r="E29" t="n">
-        <v>13866.85600908054</v>
+        <v>736.3562269517157</v>
       </c>
     </row>
     <row r="30">
@@ -1005,10 +916,7 @@
         <v>29139.07167179457</v>
       </c>
       <c r="D30" t="n">
-        <v>1321.50788466856</v>
-      </c>
-      <c r="E30" t="n">
-        <v>30460.57955646313</v>
+        <v>132.150788466856</v>
       </c>
     </row>
     <row r="31">
@@ -1024,10 +932,7 @@
         <v>17002.4884160712</v>
       </c>
       <c r="D31" t="n">
-        <v>1081.220373239745</v>
-      </c>
-      <c r="E31" t="n">
-        <v>18083.70878931095</v>
+        <v>973.0983359157703</v>
       </c>
     </row>
     <row r="32">
@@ -1043,10 +948,7 @@
         <v>40105.28839358264</v>
       </c>
       <c r="D32" t="n">
-        <v>2543.268990422074</v>
-      </c>
-      <c r="E32" t="n">
-        <v>42648.55738400471</v>
+        <v>2288.942091379867</v>
       </c>
     </row>
     <row r="33">
@@ -1062,10 +964,7 @@
         <v>51948.18627248431</v>
       </c>
       <c r="D33" t="n">
-        <v>2481.139576397256</v>
-      </c>
-      <c r="E33" t="n">
-        <v>54429.32584888156</v>
+        <v>248.1139576397256</v>
       </c>
     </row>
     <row r="34">
@@ -1081,10 +980,7 @@
         <v>32619.20270995685</v>
       </c>
       <c r="D34" t="n">
-        <v>873.992668451128</v>
-      </c>
-      <c r="E34" t="n">
-        <v>33493.19537840797</v>
+        <v>786.5934016060153</v>
       </c>
     </row>
     <row r="35">
@@ -1100,10 +996,7 @@
         <v>38035.48744835768</v>
       </c>
       <c r="D35" t="n">
-        <v>1253.112579594745</v>
-      </c>
-      <c r="E35" t="n">
-        <v>39288.60002795242</v>
+        <v>125.3112579594745</v>
       </c>
     </row>
     <row r="36">
@@ -1119,10 +1012,7 @@
         <v>31834.32500037199</v>
       </c>
       <c r="D36" t="n">
-        <v>1899.755706722129</v>
-      </c>
-      <c r="E36" t="n">
-        <v>33734.08070709412</v>
+        <v>183.5042122280863</v>
       </c>
     </row>
     <row r="37">
@@ -1138,10 +1028,7 @@
         <v>39245.39189707175</v>
       </c>
       <c r="D37" t="n">
-        <v>648.6413964138039</v>
-      </c>
-      <c r="E37" t="n">
-        <v>39894.03329348555</v>
+        <v>472.6124926215278</v>
       </c>
     </row>
     <row r="38">
@@ -1157,10 +1044,7 @@
         <v>29780.29146546932</v>
       </c>
       <c r="D38" t="n">
-        <v>2544.193441225051</v>
-      </c>
-      <c r="E38" t="n">
-        <v>32324.48490669437</v>
+        <v>2289.774097102546</v>
       </c>
     </row>
     <row r="39">
@@ -1176,10 +1060,7 @@
         <v>31536.23021917779</v>
       </c>
       <c r="D39" t="n">
-        <v>454.8279745502451</v>
-      </c>
-      <c r="E39" t="n">
-        <v>31991.05819372804</v>
+        <v>45.48279745502451</v>
       </c>
     </row>
     <row r="40">
@@ -1195,10 +1076,7 @@
         <v>38777.03275987857</v>
       </c>
       <c r="D40" t="n">
-        <v>1619.044256370925</v>
-      </c>
-      <c r="E40" t="n">
-        <v>40396.07701624949</v>
+        <v>161.9044256370925</v>
       </c>
     </row>
     <row r="41">
@@ -1214,10 +1092,7 @@
         <v>53147.24883518934</v>
       </c>
       <c r="D41" t="n">
-        <v>2798.622327518073</v>
-      </c>
-      <c r="E41" t="n">
-        <v>55945.87116270742</v>
+        <v>2700.338889793632</v>
       </c>
     </row>
     <row r="42">
@@ -1233,10 +1108,7 @@
         <v>56142.26331249252</v>
       </c>
       <c r="D42" t="n">
-        <v>1960.087827046903</v>
-      </c>
-      <c r="E42" t="n">
-        <v>58102.35113953942</v>
+        <v>196.0087827046903</v>
       </c>
     </row>
     <row r="43">
@@ -1252,10 +1124,7 @@
         <v>14257.9388307841</v>
       </c>
       <c r="D43" t="n">
-        <v>840.3653744207032</v>
-      </c>
-      <c r="E43" t="n">
-        <v>15098.30420520481</v>
+        <v>818.5931671477024</v>
       </c>
     </row>
     <row r="44">
@@ -1271,10 +1140,7 @@
         <v>41944.85834065561</v>
       </c>
       <c r="D44" t="n">
-        <v>1475.558013479307</v>
-      </c>
-      <c r="E44" t="n">
-        <v>43420.41635413492</v>
+        <v>1463.434128784709</v>
       </c>
     </row>
     <row r="45">
@@ -1290,10 +1156,7 @@
         <v>49202.57650552109</v>
       </c>
       <c r="D45" t="n">
-        <v>898.6421525303873</v>
-      </c>
-      <c r="E45" t="n">
-        <v>50101.21865805148</v>
+        <v>838.0798779757488</v>
       </c>
     </row>
     <row r="46">
@@ -1309,10 +1172,7 @@
         <v>34675.56006108311</v>
       </c>
       <c r="D46" t="n">
-        <v>1221.751103322245</v>
-      </c>
-      <c r="E46" t="n">
-        <v>35897.31116440536</v>
+        <v>1099.57599299002</v>
       </c>
     </row>
     <row r="47">
@@ -1328,10 +1188,7 @@
         <v>15024.05546939004</v>
       </c>
       <c r="D47" t="n">
-        <v>409.3602031994114</v>
-      </c>
-      <c r="E47" t="n">
-        <v>15433.41567258945</v>
+        <v>40.93602031994114</v>
       </c>
     </row>
     <row r="48">
@@ -1347,10 +1204,7 @@
         <v>32733.31344032708</v>
       </c>
       <c r="D48" t="n">
-        <v>1695.911485065655</v>
-      </c>
-      <c r="E48" t="n">
-        <v>34429.22492539274</v>
+        <v>1587.083667972623</v>
       </c>
     </row>
     <row r="49">
@@ -1366,10 +1220,7 @@
         <v>59818.73756415215</v>
       </c>
       <c r="D49" t="n">
-        <v>2840.962640595823</v>
-      </c>
-      <c r="E49" t="n">
-        <v>62659.70020474798</v>
+        <v>2069.979564116601</v>
       </c>
     </row>
     <row r="50">
@@ -1385,10 +1236,7 @@
         <v>23925.28921537889</v>
       </c>
       <c r="D50" t="n">
-        <v>1332.150791738085</v>
-      </c>
-      <c r="E50" t="n">
-        <v>25257.44000711697</v>
+        <v>1198.935712564276</v>
       </c>
     </row>
     <row r="51">
@@ -1404,10 +1252,7 @@
         <v>41681.63567103776</v>
       </c>
       <c r="D51" t="n">
-        <v>572.2732764069527</v>
-      </c>
-      <c r="E51" t="n">
-        <v>42253.90894744471</v>
+        <v>188.9776707132551</v>
       </c>
     </row>
     <row r="52">
@@ -1423,10 +1268,7 @@
         <v>11575.99892445405</v>
       </c>
       <c r="D52" t="n">
-        <v>596.7532428438724</v>
-      </c>
-      <c r="E52" t="n">
-        <v>12172.75216729792</v>
+        <v>59.67532428438724</v>
       </c>
     </row>
     <row r="53">
@@ -1442,10 +1284,7 @@
         <v>25215.87228649447</v>
       </c>
       <c r="D53" t="n">
-        <v>1541.049962479477</v>
-      </c>
-      <c r="E53" t="n">
-        <v>26756.92224897395</v>
+        <v>10.19496106939808</v>
       </c>
     </row>
     <row r="54">
@@ -1461,10 +1300,7 @@
         <v>16661.19023912127</v>
       </c>
       <c r="D54" t="n">
-        <v>877.7220506724668</v>
-      </c>
-      <c r="E54" t="n">
-        <v>17538.91228979374</v>
+        <v>5.806652836849358</v>
       </c>
     </row>
     <row r="55">
@@ -1480,10 +1316,7 @@
         <v>47257.36850018134</v>
       </c>
       <c r="D55" t="n">
-        <v>1314.621868349877</v>
-      </c>
-      <c r="E55" t="n">
-        <v>48571.99036853122</v>
+        <v>1254.085395405565</v>
       </c>
     </row>
     <row r="56">
@@ -1499,10 +1332,7 @@
         <v>30632.97548225472</v>
       </c>
       <c r="D56" t="n">
-        <v>960.5053371181903</v>
-      </c>
-      <c r="E56" t="n">
-        <v>31593.48081937291</v>
+        <v>916.2754283107956</v>
       </c>
     </row>
     <row r="57">
@@ -1518,10 +1348,7 @@
         <v>56533.18155073505</v>
       </c>
       <c r="D57" t="n">
-        <v>1343.205605852672</v>
-      </c>
-      <c r="E57" t="n">
-        <v>57876.38715658773</v>
+        <v>282.7255096930357</v>
       </c>
     </row>
     <row r="58">
@@ -1537,10 +1364,7 @@
         <v>54675.69493220276</v>
       </c>
       <c r="D58" t="n">
-        <v>3124.150781928985</v>
-      </c>
-      <c r="E58" t="n">
-        <v>57799.84571413175</v>
+        <v>25.75562937874634</v>
       </c>
     </row>
     <row r="59">
@@ -1556,10 +1380,7 @@
         <v>14329.03400483744</v>
       </c>
       <c r="D59" t="n">
-        <v>930.8995722725739</v>
-      </c>
-      <c r="E59" t="n">
-        <v>15259.93357711002</v>
+        <v>837.8096150453164</v>
       </c>
     </row>
     <row r="60">
@@ -1575,10 +1396,7 @@
         <v>57472.06753724212</v>
       </c>
       <c r="D60" t="n">
-        <v>-28.88942243472178</v>
-      </c>
-      <c r="E60" t="n">
-        <v>57443.1781148074</v>
+        <v>-2.888942243472178</v>
       </c>
     </row>
     <row r="61">
@@ -1594,10 +1412,7 @@
         <v>26715.45156619022</v>
       </c>
       <c r="D61" t="n">
-        <v>683.4441938989825</v>
-      </c>
-      <c r="E61" t="n">
-        <v>27398.8957600892</v>
+        <v>615.0997745090842</v>
       </c>
     </row>
     <row r="62">
@@ -1613,10 +1428,7 @@
         <v>15466.15331314126</v>
       </c>
       <c r="D62" t="n">
-        <v>494.5870606044681</v>
-      </c>
-      <c r="E62" t="n">
-        <v>15960.74037374573</v>
+        <v>445.1283545440213</v>
       </c>
     </row>
     <row r="63">
@@ -1632,10 +1444,7 @@
         <v>25940.45536852074</v>
       </c>
       <c r="D63" t="n">
-        <v>1493.704930072321</v>
-      </c>
-      <c r="E63" t="n">
-        <v>27434.16029859305</v>
+        <v>1344.334437065089</v>
       </c>
     </row>
     <row r="64">
@@ -1651,10 +1460,7 @@
         <v>37680.30446726947</v>
       </c>
       <c r="D64" t="n">
-        <v>1701.145454594783</v>
-      </c>
-      <c r="E64" t="n">
-        <v>39381.44992186426</v>
+        <v>1531.030909135305</v>
       </c>
     </row>
     <row r="65">
@@ -1670,10 +1476,7 @@
         <v>67533.19052125196</v>
       </c>
       <c r="D65" t="n">
-        <v>928.0875747524231</v>
-      </c>
-      <c r="E65" t="n">
-        <v>68461.27809600439</v>
+        <v>904.0426585052068</v>
       </c>
     </row>
     <row r="66">
@@ -1689,10 +1492,7 @@
         <v>31656.89091362528</v>
       </c>
       <c r="D66" t="n">
-        <v>2191.745793438904</v>
-      </c>
-      <c r="E66" t="n">
-        <v>33848.63670706419</v>
+        <v>2123.721285874066</v>
       </c>
     </row>
     <row r="67">
@@ -1708,10 +1508,7 @@
         <v>22577.9897463366</v>
       </c>
       <c r="D67" t="n">
-        <v>1992.407216375522</v>
-      </c>
-      <c r="E67" t="n">
-        <v>24570.39696271212</v>
+        <v>199.2407216375522</v>
       </c>
     </row>
     <row r="68">
@@ -1727,10 +1524,7 @@
         <v>61722.8752363533</v>
       </c>
       <c r="D68" t="n">
-        <v>3483.23187174946</v>
-      </c>
-      <c r="E68" t="n">
-        <v>65206.10710810275</v>
+        <v>3134.908684574513</v>
       </c>
     </row>
     <row r="69">
@@ -1748,9 +1542,6 @@
       <c r="D69" t="n">
         <v>0</v>
       </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1765,10 +1556,7 @@
         <v>47355.66131972133</v>
       </c>
       <c r="D70" t="n">
-        <v>2073.55881026553</v>
-      </c>
-      <c r="E70" t="n">
-        <v>49429.22012998686</v>
+        <v>1866.202929238977</v>
       </c>
     </row>
     <row r="71">
@@ -1786,9 +1574,6 @@
       <c r="D71" t="n">
         <v>0</v>
       </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1803,10 +1588,7 @@
         <v>27068.83911342558</v>
       </c>
       <c r="D72" t="n">
-        <v>1592.541147015765</v>
-      </c>
-      <c r="E72" t="n">
-        <v>28661.38026044134</v>
+        <v>1433.287032314189</v>
       </c>
     </row>
     <row r="73">
@@ -1822,10 +1604,7 @@
         <v>52349.01806104441</v>
       </c>
       <c r="D73" t="n">
-        <v>3199.005701819884</v>
-      </c>
-      <c r="E73" t="n">
-        <v>55548.02376286429</v>
+        <v>319.9005701819884</v>
       </c>
     </row>
     <row r="74">
@@ -1841,10 +1620,7 @@
         <v>52723.45302586627</v>
       </c>
       <c r="D74" t="n">
-        <v>2221.509072846978</v>
-      </c>
-      <c r="E74" t="n">
-        <v>54944.96209871325</v>
+        <v>1999.35816556228</v>
       </c>
     </row>
     <row r="75">
@@ -1860,10 +1636,7 @@
         <v>40836.55418705598</v>
       </c>
       <c r="D75" t="n">
-        <v>2410.211700886266</v>
-      </c>
-      <c r="E75" t="n">
-        <v>43246.76588794225</v>
+        <v>2270.906640551089</v>
       </c>
     </row>
     <row r="76">
@@ -1879,10 +1652,7 @@
         <v>75952.96138294261</v>
       </c>
       <c r="D76" t="n">
-        <v>1864.705195919929</v>
-      </c>
-      <c r="E76" t="n">
-        <v>77817.66657886254</v>
+        <v>1678.234676327936</v>
       </c>
     </row>
     <row r="77">
@@ -1898,10 +1668,7 @@
         <v>46751.5081612452</v>
       </c>
       <c r="D77" t="n">
-        <v>326.7451533217292</v>
-      </c>
-      <c r="E77" t="n">
-        <v>47078.25331456694</v>
+        <v>32.67451533217292</v>
       </c>
     </row>
     <row r="78">
@@ -1917,10 +1684,7 @@
         <v>29277.09050278343</v>
       </c>
       <c r="D78" t="n">
-        <v>358.4790005606823</v>
-      </c>
-      <c r="E78" t="n">
-        <v>29635.56950334412</v>
+        <v>299.1712122261857</v>
       </c>
     </row>
     <row r="79">
@@ -1936,10 +1700,7 @@
         <v>49229.25835264752</v>
       </c>
       <c r="D79" t="n">
-        <v>1919.15534993073</v>
-      </c>
-      <c r="E79" t="n">
-        <v>51148.41370257825</v>
+        <v>191.915534993073</v>
       </c>
     </row>
     <row r="80">
@@ -1955,10 +1716,7 @@
         <v>14105.24673005274</v>
       </c>
       <c r="D80" t="n">
-        <v>340.8900633827123</v>
-      </c>
-      <c r="E80" t="n">
-        <v>14446.13679343545</v>
+        <v>338.8865540057837</v>
       </c>
     </row>
     <row r="81">
@@ -1974,10 +1732,7 @@
         <v>25573.54112328502</v>
       </c>
       <c r="D81" t="n">
-        <v>890.2637668406195</v>
-      </c>
-      <c r="E81" t="n">
-        <v>26463.80489012564</v>
+        <v>801.2373901565576</v>
       </c>
     </row>
     <row r="82">
@@ -1993,10 +1748,7 @@
         <v>10171.47382822298</v>
       </c>
       <c r="D82" t="n">
-        <v>236.9226304296826</v>
-      </c>
-      <c r="E82" t="n">
-        <v>10408.39645865266</v>
+        <v>235.5301676897536</v>
       </c>
     </row>
     <row r="83">
@@ -2012,10 +1764,7 @@
         <v>44011.08634198173</v>
       </c>
       <c r="D83" t="n">
-        <v>1058.387096085496</v>
-      </c>
-      <c r="E83" t="n">
-        <v>45069.47343806723</v>
+        <v>1038.355831307025</v>
       </c>
     </row>
     <row r="84">
@@ -2031,10 +1780,7 @@
         <v>69751.8595510734</v>
       </c>
       <c r="D84" t="n">
-        <v>4425.243769497448</v>
-      </c>
-      <c r="E84" t="n">
-        <v>74177.10332057085</v>
+        <v>442.5243769497448</v>
       </c>
     </row>
     <row r="85">
@@ -2050,10 +1796,7 @@
         <v>41689.41150053519</v>
       </c>
       <c r="D85" t="n">
-        <v>500.301964827681</v>
-      </c>
-      <c r="E85" t="n">
-        <v>42189.71346536287</v>
+        <v>50.0301964827681</v>
       </c>
     </row>
     <row r="86">
@@ -2069,10 +1812,7 @@
         <v>23424.35691851566</v>
       </c>
       <c r="D86" t="n">
-        <v>1058.289151365493</v>
-      </c>
-      <c r="E86" t="n">
-        <v>24482.64606988115</v>
+        <v>952.4602362289436</v>
       </c>
     </row>
     <row r="87">
@@ -2088,10 +1828,7 @@
         <v>19817.41246958797</v>
       </c>
       <c r="D87" t="n">
-        <v>1069.126786847524</v>
-      </c>
-      <c r="E87" t="n">
-        <v>20886.5392564355</v>
+        <v>962.2141081627719</v>
       </c>
     </row>
     <row r="88">
@@ -2107,10 +1844,7 @@
         <v>35027.98839980303</v>
       </c>
       <c r="D88" t="n">
-        <v>1504.000823453701</v>
-      </c>
-      <c r="E88" t="n">
-        <v>36531.98922325674</v>
+        <v>1460.767107183557</v>
       </c>
     </row>
     <row r="89">
@@ -2126,10 +1860,7 @@
         <v>46521.12027029795</v>
       </c>
       <c r="D89" t="n">
-        <v>1333.50816782995</v>
-      </c>
-      <c r="E89" t="n">
-        <v>47854.6284381279</v>
+        <v>133.350816782995</v>
       </c>
     </row>
     <row r="90">
@@ -2145,10 +1876,7 @@
         <v>41655.75492661659</v>
       </c>
       <c r="D90" t="n">
-        <v>1954.185098354272</v>
-      </c>
-      <c r="E90" t="n">
-        <v>43609.94002497086</v>
+        <v>195.4185098354272</v>
       </c>
     </row>
     <row r="91">
@@ -2166,9 +1894,6 @@
       <c r="D91" t="n">
         <v>0</v>
       </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2183,10 +1908,7 @@
         <v>55157.09245027695</v>
       </c>
       <c r="D92" t="n">
-        <v>3445.195992407479</v>
-      </c>
-      <c r="E92" t="n">
-        <v>58602.28844268442</v>
+        <v>344.519599240748</v>
       </c>
     </row>
     <row r="93">
@@ -2202,10 +1924,7 @@
         <v>56407.74960256426</v>
       </c>
       <c r="D93" t="n">
-        <v>1415.885985485223</v>
-      </c>
-      <c r="E93" t="n">
-        <v>57823.63558804948</v>
+        <v>1274.2973869367</v>
       </c>
     </row>
     <row r="94">
@@ -2221,10 +1940,7 @@
         <v>16145.03510401269</v>
       </c>
       <c r="D94" t="n">
-        <v>477.2352146362356</v>
-      </c>
-      <c r="E94" t="n">
-        <v>16622.27031864892</v>
+        <v>429.511693172612</v>
       </c>
     </row>
     <row r="95">
@@ -2240,10 +1956,7 @@
         <v>42483.52999403348</v>
       </c>
       <c r="D95" t="n">
-        <v>1168.563215590906</v>
-      </c>
-      <c r="E95" t="n">
-        <v>43652.09320962439</v>
+        <v>967.9106097078871</v>
       </c>
     </row>
     <row r="96">
@@ -2259,10 +1972,7 @@
         <v>27644.27998242771</v>
       </c>
       <c r="D96" t="n">
-        <v>1612.869915408418</v>
-      </c>
-      <c r="E96" t="n">
-        <v>29257.14989783613</v>
+        <v>1451.582923867576</v>
       </c>
     </row>
     <row r="97">
@@ -2278,10 +1988,7 @@
         <v>38677.89435199616</v>
       </c>
       <c r="D97" t="n">
-        <v>1785.408191385118</v>
-      </c>
-      <c r="E97" t="n">
-        <v>40463.30254338128</v>
+        <v>1737.623025880442</v>
       </c>
     </row>
     <row r="98">
@@ -2297,10 +2004,7 @@
         <v>40398.96967741435</v>
       </c>
       <c r="D98" t="n">
-        <v>1711.218634092145</v>
-      </c>
-      <c r="E98" t="n">
-        <v>42110.1883115065</v>
+        <v>1540.09677068293</v>
       </c>
     </row>
     <row r="99">
@@ -2316,10 +2020,7 @@
         <v>68339.48529005857</v>
       </c>
       <c r="D99" t="n">
-        <v>2364.208030913866</v>
-      </c>
-      <c r="E99" t="n">
-        <v>70703.69332097244</v>
+        <v>236.4208030913866</v>
       </c>
     </row>
     <row r="100">
@@ -2335,10 +2036,7 @@
         <v>42318.33139930148</v>
       </c>
       <c r="D100" t="n">
-        <v>2794.652635761949</v>
-      </c>
-      <c r="E100" t="n">
-        <v>45112.98403506343</v>
+        <v>279.4652635761949</v>
       </c>
     </row>
     <row r="101">
@@ -2354,10 +2052,7 @@
         <v>69640.53722543495</v>
       </c>
       <c r="D101" t="n">
-        <v>1470.576249498464</v>
-      </c>
-      <c r="E101" t="n">
-        <v>71111.11347493342</v>
+        <v>1323.518624548618</v>
       </c>
     </row>
     <row r="102">
@@ -2373,10 +2068,7 @@
         <v>21043.24678855149</v>
       </c>
       <c r="D102" t="n">
-        <v>899.0189032763568</v>
-      </c>
-      <c r="E102" t="n">
-        <v>21942.26569182785</v>
+        <v>809.1170129487211</v>
       </c>
     </row>
     <row r="103">
@@ -2394,9 +2086,6 @@
       <c r="D103" t="n">
         <v>0</v>
       </c>
-      <c r="E103" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2411,10 +2100,7 @@
         <v>86298.07649344644</v>
       </c>
       <c r="D104" t="n">
-        <v>3385.316146011814</v>
-      </c>
-      <c r="E104" t="n">
-        <v>89683.39263945825</v>
+        <v>3356.639421801965</v>
       </c>
     </row>
     <row r="105">
@@ -2430,10 +2116,7 @@
         <v>29978.66725261466</v>
       </c>
       <c r="D105" t="n">
-        <v>1636.173984359474</v>
-      </c>
-      <c r="E105" t="n">
-        <v>31614.84123697413</v>
+        <v>163.6173984359474</v>
       </c>
     </row>
     <row r="106">
@@ -2451,9 +2134,6 @@
       <c r="D106" t="n">
         <v>0</v>
       </c>
-      <c r="E106" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2468,10 +2148,7 @@
         <v>21898.65772056901</v>
       </c>
       <c r="D107" t="n">
-        <v>1399.024192438298</v>
-      </c>
-      <c r="E107" t="n">
-        <v>23297.68191300731</v>
+        <v>1259.121773194468</v>
       </c>
     </row>
     <row r="108">
@@ -2489,9 +2166,6 @@
       <c r="D108" t="n">
         <v>0</v>
       </c>
-      <c r="E108" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2506,10 +2180,7 @@
         <v>12507.87000411738</v>
       </c>
       <c r="D109" t="n">
-        <v>684.7430765663636</v>
-      </c>
-      <c r="E109" t="n">
-        <v>13192.61308068374</v>
+        <v>616.2687689097272</v>
       </c>
     </row>
     <row r="110">
@@ -2527,9 +2198,6 @@
       <c r="D110" t="n">
         <v>0</v>
       </c>
-      <c r="E110" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2544,10 +2212,7 @@
         <v>56816.35878403351</v>
       </c>
       <c r="D111" t="n">
-        <v>1329.74018750788</v>
-      </c>
-      <c r="E111" t="n">
-        <v>58146.09897154139</v>
+        <v>132.974018750788</v>
       </c>
     </row>
     <row r="112">
@@ -2563,10 +2228,7 @@
         <v>56641.23508885764</v>
       </c>
       <c r="D112" t="n">
-        <v>2965.904497828343</v>
-      </c>
-      <c r="E112" t="n">
-        <v>59607.13958668598</v>
+        <v>2669.314048045509</v>
       </c>
     </row>
     <row r="113">
@@ -2582,10 +2244,7 @@
         <v>29275.11147894633</v>
       </c>
       <c r="D113" t="n">
-        <v>1087.526536501254</v>
-      </c>
-      <c r="E113" t="n">
-        <v>30362.63801544758</v>
+        <v>978.7738828511285</v>
       </c>
     </row>
     <row r="114">
@@ -2601,10 +2260,7 @@
         <v>24745.98624773109</v>
       </c>
       <c r="D114" t="n">
-        <v>1307.127767959192</v>
-      </c>
-      <c r="E114" t="n">
-        <v>26053.11401569028</v>
+        <v>1176.414991163273</v>
       </c>
     </row>
     <row r="115">
@@ -2620,10 +2276,7 @@
         <v>35952.74583365596</v>
       </c>
       <c r="D115" t="n">
-        <v>1805.870156335956</v>
-      </c>
-      <c r="E115" t="n">
-        <v>37758.61598999192</v>
+        <v>1625.28314070236</v>
       </c>
     </row>
     <row r="116">
@@ -2639,10 +2292,7 @@
         <v>34794.95015393724</v>
       </c>
       <c r="D116" t="n">
-        <v>2414.907930262473</v>
-      </c>
-      <c r="E116" t="n">
-        <v>37209.85808419971</v>
+        <v>1482.511868222201</v>
       </c>
     </row>
     <row r="117">
@@ -2658,10 +2308,7 @@
         <v>58096.92661304415</v>
       </c>
       <c r="D117" t="n">
-        <v>3181.955414691584</v>
-      </c>
-      <c r="E117" t="n">
-        <v>61278.88202773574</v>
+        <v>1221.599066460263</v>
       </c>
     </row>
     <row r="118">
@@ -2677,10 +2324,7 @@
         <v>60787.67450762977</v>
       </c>
       <c r="D118" t="n">
-        <v>4263.352545287273</v>
-      </c>
-      <c r="E118" t="n">
-        <v>65051.02705291704</v>
+        <v>3837.017290758546</v>
       </c>
     </row>
     <row r="119">
@@ -2698,9 +2342,6 @@
       <c r="D119" t="n">
         <v>0</v>
       </c>
-      <c r="E119" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2715,10 +2356,7 @@
         <v>47055.71530241152</v>
       </c>
       <c r="D120" t="n">
-        <v>3236.703823923215</v>
-      </c>
-      <c r="E120" t="n">
-        <v>50292.41912633473</v>
+        <v>2913.033441530893</v>
       </c>
     </row>
     <row r="121">
@@ -2734,10 +2372,7 @@
         <v>34901.48006197033</v>
       </c>
       <c r="D121" t="n">
-        <v>2458.683050002939</v>
-      </c>
-      <c r="E121" t="n">
-        <v>37360.16311197327</v>
+        <v>972.970117080104</v>
       </c>
     </row>
     <row r="122">
@@ -2753,10 +2388,7 @@
         <v>30084.59004068963</v>
       </c>
       <c r="D122" t="n">
-        <v>2439.788254997063</v>
-      </c>
-      <c r="E122" t="n">
-        <v>32524.37829568669</v>
+        <v>243.9788254997063</v>
       </c>
     </row>
     <row r="123">
@@ -2774,9 +2406,6 @@
       <c r="D123" t="n">
         <v>0</v>
       </c>
-      <c r="E123" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2791,10 +2420,7 @@
         <v>28137.22664911011</v>
       </c>
       <c r="D124" t="n">
-        <v>1314.595285753501</v>
-      </c>
-      <c r="E124" t="n">
-        <v>29451.82193486362</v>
+        <v>131.4595285753501</v>
       </c>
     </row>
     <row r="125">
@@ -2810,10 +2436,7 @@
         <v>29290.5628537839</v>
       </c>
       <c r="D125" t="n">
-        <v>1952.469704584621</v>
-      </c>
-      <c r="E125" t="n">
-        <v>31243.03255836852</v>
+        <v>195.2469704584621</v>
       </c>
     </row>
     <row r="126">
@@ -2829,10 +2452,7 @@
         <v>14617.5351032928</v>
       </c>
       <c r="D126" t="n">
-        <v>1347.794800982929</v>
-      </c>
-      <c r="E126" t="n">
-        <v>15965.32990427573</v>
+        <v>1282.952768672368</v>
       </c>
     </row>
     <row r="127">
@@ -2850,9 +2470,6 @@
       <c r="D127" t="n">
         <v>0</v>
       </c>
-      <c r="E127" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -2867,10 +2484,7 @@
         <v>51086.46195164625</v>
       </c>
       <c r="D128" t="n">
-        <v>615.429555044824</v>
-      </c>
-      <c r="E128" t="n">
-        <v>51701.89150669107</v>
+        <v>61.54295550448241</v>
       </c>
     </row>
     <row r="129">
@@ -2886,10 +2500,7 @@
         <v>43347.49454719999</v>
       </c>
       <c r="D129" t="n">
-        <v>3051.478477484144</v>
-      </c>
-      <c r="E129" t="n">
-        <v>46398.97302468414</v>
+        <v>2746.33062973573</v>
       </c>
     </row>
     <row r="130">
@@ -2907,9 +2518,6 @@
       <c r="D130" t="n">
         <v>0</v>
       </c>
-      <c r="E130" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -2924,10 +2532,7 @@
         <v>46924.249630686</v>
       </c>
       <c r="D131" t="n">
-        <v>1527.187616608308</v>
-      </c>
-      <c r="E131" t="n">
-        <v>48451.43724729431</v>
+        <v>1374.468854947477</v>
       </c>
     </row>
     <row r="132">
@@ -2943,10 +2548,7 @@
         <v>24033.33999513045</v>
       </c>
       <c r="D132" t="n">
-        <v>371.2662672981785</v>
-      </c>
-      <c r="E132" t="n">
-        <v>24404.60626242863</v>
+        <v>334.1396405683606</v>
       </c>
     </row>
     <row r="133">
@@ -2962,10 +2564,7 @@
         <v>20513.35140447265</v>
       </c>
       <c r="D133" t="n">
-        <v>726.9451940680677</v>
-      </c>
-      <c r="E133" t="n">
-        <v>21240.29659854072</v>
+        <v>654.2506746612611</v>
       </c>
     </row>
     <row r="134">
@@ -2981,10 +2580,7 @@
         <v>52084.75879137556</v>
       </c>
       <c r="D134" t="n">
-        <v>2949.746440657153</v>
-      </c>
-      <c r="E134" t="n">
-        <v>55034.50523203272</v>
+        <v>2654.771796591437</v>
       </c>
     </row>
     <row r="135">
@@ -3000,10 +2596,7 @@
         <v>21725.86032046083</v>
       </c>
       <c r="D135" t="n">
-        <v>712.4786263889063</v>
-      </c>
-      <c r="E135" t="n">
-        <v>22438.33894684974</v>
+        <v>641.2307637500156</v>
       </c>
     </row>
     <row r="136">
@@ -3019,10 +2612,7 @@
         <v>63893.07582086282</v>
       </c>
       <c r="D136" t="n">
-        <v>4311.166178718445</v>
-      </c>
-      <c r="E136" t="n">
-        <v>68204.24199958127</v>
+        <v>3880.0495608466</v>
       </c>
     </row>
     <row r="137">
@@ -3038,10 +2628,7 @@
         <v>40944.58696934343</v>
       </c>
       <c r="D137" t="n">
-        <v>1254.858667204419</v>
-      </c>
-      <c r="E137" t="n">
-        <v>42199.44563654785</v>
+        <v>982.3445292459099</v>
       </c>
     </row>
     <row r="138">
@@ -3057,10 +2644,7 @@
         <v>55476.07523632323</v>
       </c>
       <c r="D138" t="n">
-        <v>2759.303798655559</v>
-      </c>
-      <c r="E138" t="n">
-        <v>58235.37903497879</v>
+        <v>2759.301846870755</v>
       </c>
     </row>
     <row r="139">
@@ -3076,10 +2660,7 @@
         <v>30328.46016837886</v>
       </c>
       <c r="D139" t="n">
-        <v>1850.268814877289</v>
-      </c>
-      <c r="E139" t="n">
-        <v>32178.72898325615</v>
+        <v>1324.319328318643</v>
       </c>
     </row>
     <row r="140">
@@ -3095,10 +2676,7 @@
         <v>30390.95028542276</v>
       </c>
       <c r="D140" t="n">
-        <v>1089.333469425203</v>
-      </c>
-      <c r="E140" t="n">
-        <v>31480.28375484797</v>
+        <v>980.4001224826832</v>
       </c>
     </row>
     <row r="141">
@@ -3114,10 +2692,7 @@
         <v>29334.32983961421</v>
       </c>
       <c r="D141" t="n">
-        <v>1738.784522785509</v>
-      </c>
-      <c r="E141" t="n">
-        <v>31073.11436239972</v>
+        <v>1564.906070506958</v>
       </c>
     </row>
     <row r="142">
@@ -3133,10 +2708,7 @@
         <v>44840.44541164677</v>
       </c>
       <c r="D142" t="n">
-        <v>2687.980758271299</v>
-      </c>
-      <c r="E142" t="n">
-        <v>47528.42616991806</v>
+        <v>2419.182682444169</v>
       </c>
     </row>
     <row r="143">
@@ -3152,10 +2724,7 @@
         <v>37845.28814885961</v>
       </c>
       <c r="D143" t="n">
-        <v>2338.414650554859</v>
-      </c>
-      <c r="E143" t="n">
-        <v>40183.70279941447</v>
+        <v>2104.573185499373</v>
       </c>
     </row>
     <row r="144">
@@ -3171,10 +2740,7 @@
         <v>25118.68555835621</v>
       </c>
       <c r="D144" t="n">
-        <v>1068.139569750504</v>
-      </c>
-      <c r="E144" t="n">
-        <v>26186.82512810671</v>
+        <v>961.3256127754538</v>
       </c>
     </row>
     <row r="145">
@@ -3190,10 +2756,7 @@
         <v>26672.91142767302</v>
       </c>
       <c r="D145" t="n">
-        <v>1096.469992037489</v>
-      </c>
-      <c r="E145" t="n">
-        <v>27769.38141971051</v>
+        <v>986.8229928337403</v>
       </c>
     </row>
     <row r="146">
@@ -3209,10 +2772,7 @@
         <v>60123.9238350782</v>
       </c>
       <c r="D146" t="n">
-        <v>3376.411346911279</v>
-      </c>
-      <c r="E146" t="n">
-        <v>63500.33518198948</v>
+        <v>3038.770212220152</v>
       </c>
     </row>
     <row r="147">
@@ -3228,10 +2788,7 @@
         <v>44731.8319999438</v>
       </c>
       <c r="D147" t="n">
-        <v>2851.646492541495</v>
-      </c>
-      <c r="E147" t="n">
-        <v>47583.47849248529</v>
+        <v>2566.481843287346</v>
       </c>
     </row>
     <row r="148">
@@ -3247,10 +2804,7 @@
         <v>66131.22530654639</v>
       </c>
       <c r="D148" t="n">
-        <v>3082.482609699274</v>
-      </c>
-      <c r="E148" t="n">
-        <v>69213.70791624566</v>
+        <v>2774.234348729346</v>
       </c>
     </row>
     <row r="149">
@@ -3266,10 +2820,7 @@
         <v>21360.59315255891</v>
       </c>
       <c r="D149" t="n">
-        <v>492.6897436430788</v>
-      </c>
-      <c r="E149" t="n">
-        <v>21853.28289620199</v>
+        <v>462.2033314513881</v>
       </c>
     </row>
     <row r="150">
@@ -3287,9 +2838,6 @@
       <c r="D150" t="n">
         <v>0</v>
       </c>
-      <c r="E150" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -3304,10 +2852,7 @@
         <v>28436.12850045016</v>
       </c>
       <c r="D151" t="n">
-        <v>1645.185454651583</v>
-      </c>
-      <c r="E151" t="n">
-        <v>30081.31395510174</v>
+        <v>164.5185454651583</v>
       </c>
     </row>
     <row r="152">
@@ -3323,10 +2868,7 @@
         <v>68782.63878352183</v>
       </c>
       <c r="D152" t="n">
-        <v>2770.338183210489</v>
-      </c>
-      <c r="E152" t="n">
-        <v>71552.97696673233</v>
+        <v>2689.118890855472</v>
       </c>
     </row>
     <row r="153">
@@ -3342,10 +2884,7 @@
         <v>13477.01133111074</v>
       </c>
       <c r="D153" t="n">
-        <v>718.4209894368887</v>
-      </c>
-      <c r="E153" t="n">
-        <v>14195.43232054763</v>
+        <v>56.68832180608949</v>
       </c>
     </row>
     <row r="154">
@@ -3361,10 +2900,7 @@
         <v>51952.60864170408</v>
       </c>
       <c r="D154" t="n">
-        <v>1678.257950323181</v>
-      </c>
-      <c r="E154" t="n">
-        <v>53630.86659202726</v>
+        <v>1510.432155290863</v>
       </c>
     </row>
     <row r="155">
@@ -3380,10 +2916,7 @@
         <v>52091.40655322816</v>
       </c>
       <c r="D155" t="n">
-        <v>2686.115132437945</v>
-      </c>
-      <c r="E155" t="n">
-        <v>54777.52168566611</v>
+        <v>2417.50361919415</v>
       </c>
     </row>
     <row r="156">
@@ -3399,10 +2932,7 @@
         <v>67674.59977344835</v>
       </c>
       <c r="D156" t="n">
-        <v>1741.86424282994</v>
-      </c>
-      <c r="E156" t="n">
-        <v>69416.46401627829</v>
+        <v>174.186424282994</v>
       </c>
     </row>
     <row r="157">
@@ -3418,10 +2948,7 @@
         <v>17210.4440771961</v>
       </c>
       <c r="D157" t="n">
-        <v>379.8969050861595</v>
-      </c>
-      <c r="E157" t="n">
-        <v>17590.34098228226</v>
+        <v>337.9605448002294</v>
       </c>
     </row>
     <row r="158">
@@ -3437,10 +2964,7 @@
         <v>38015.89341688779</v>
       </c>
       <c r="D158" t="n">
-        <v>1664.610922961272</v>
-      </c>
-      <c r="E158" t="n">
-        <v>39680.50433984906</v>
+        <v>1498.149830665145</v>
       </c>
     </row>
   </sheetData>
